--- a/test_excel/example - 複製1K.xlsx
+++ b/test_excel/example - 複製1K.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorial\Python\find_sum_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorial\Python\find_sum_excel\test_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2F82C-E391-40C5-9727-DC81095C8C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228854A-365D-499B-BD3F-3E2F135A849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26490" yWindow="2910" windowWidth="11685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28665" yWindow="2775" windowWidth="11685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbb" sheetId="2" r:id="rId1"/>
@@ -37,13 +37,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ColumnA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ColumnB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnA100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,9 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FF91A-4D15-45CB-B4EF-0FC0D8778191}">
   <dimension ref="A1:A10341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -389,7 +391,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -420,6331 +422,6331 @@
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f ca="1">INT(RAND()*10000)</f>
-        <v>7196</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f ca="1">INT(RAND()*10000)</f>
-        <v>202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A73" ca="1" si="0">INT(RAND()*10000)</f>
-        <v>1203</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3461</v>
+        <v>8557</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7463</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7077</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7919</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4087</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2336</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7815</v>
+        <v>8921</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8306</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4602</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9100</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9261</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7855</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4655</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1553</v>
+        <v>8518</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5601</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4077</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7295</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7379</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1090</v>
+        <v>8962</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7615</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3710</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5838</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6180</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4627</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9105</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1596</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8964</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3249</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9946</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7889</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8914</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8777</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4880</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>879</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9436</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>722</v>
+        <v>9158</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>507</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1933</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1650</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8575</v>
+        <v>8649</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8382</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5424</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>405</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2267</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1680</v>
+        <v>9621</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7315</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8059</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5207</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2419</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3918</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7940</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2701</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7756</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3492</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1579</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2499</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8432</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8419</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4608</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5851</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4592</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" ref="A74:A137" ca="1" si="1">INT(RAND()*10000)</f>
-        <v>3708</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6622</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9986</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3255</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8345</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6423</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7936</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3726</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9107</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2871</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>873</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1803</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5191</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6017</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>894</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8691</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>303</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4387</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8899</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1767</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8586</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5401</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3339</v>
+        <v>9537</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>309</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8359</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7589</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6154</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1543</v>
+        <v>9586</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1062</v>
+        <v>9793</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3661</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3318</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2860</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3189</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9591</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1702</v>
+        <v>8873</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>946</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2717</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8070</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4539</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6647</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2712</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7346</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8115</v>
+        <v>9231</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3648</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1648</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4589</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2397</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8949</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3516</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4201</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3353</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7654</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5520</v>
+        <v>6999</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7402</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6958</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5710</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8252</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8628</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6548</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5506</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2375</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ref="A138:A201" ca="1" si="2">INT(RAND()*10000)</f>
-        <v>9410</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>799</v>
+        <v>897</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2632</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1799</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8487</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1748</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2149</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2559</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4621</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6650</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9660</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9790</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2116</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9607</v>
+        <v>8886</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6869</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6942</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8928</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9210</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1588</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5332</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3303</v>
+        <v>9844</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4033</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9094</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2998</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6031</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7349</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>692</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7514</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1061</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7728</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8783</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8698</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3860</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4983</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5218</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8360</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>289</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8559</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1663</v>
+        <v>9115</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3458</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5324</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9429</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3400</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8873</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2467</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1953</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>300</v>
+        <v>516</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2041</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2178</v>
+        <v>9563</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9274</v>
+        <v>985</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1673</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9027</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>106</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>606</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7905</v>
+        <v>407</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8057</v>
+        <v>9642</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7291</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1654</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3918</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1765</v>
+        <v>6955</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1956</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2437</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4145</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" ref="A202:A265" ca="1" si="3">INT(RAND()*10000)</f>
-        <v>125</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5706</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2825</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1565</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5164</v>
+        <v>9031</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1573</v>
+        <v>9346</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9666</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6898</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9151</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7085</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7858</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2005</v>
+        <v>9919</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4339</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2243</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8467</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7898</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2440</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6887</v>
+        <v>790</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1543</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5275</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6822</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>821</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4520</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>733</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2715</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7799</v>
+        <v>8072</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8071</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>441</v>
+        <v>8948</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3920</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1201</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8974</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9563</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2109</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>634</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4848</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6603</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1492</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3701</v>
+        <v>360</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1153</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8012</v>
+        <v>179</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4335</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5896</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9451</v>
+        <v>640</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>113</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3811</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1202</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5392</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1115</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6314</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4563</v>
+        <v>65</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7578</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6259</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7656</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1416</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1165</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3824</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9846</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2475</v>
+        <v>8226</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2368</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>611</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8670</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8527</v>
+        <v>9036</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1629</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" ref="A266:A329" ca="1" si="4">INT(RAND()*10000)</f>
-        <v>4224</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2552</v>
+        <v>739</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1052</v>
+        <v>408</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7669</v>
+        <v>9271</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2552</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5927</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2474</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3287</v>
+        <v>217</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6549</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7588</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4013</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4424</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8109</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7700</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6284</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4262</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8954</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3978</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>981</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4321</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3779</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8511</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4626</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>540</v>
+        <v>913</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4655</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7309</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7401</v>
+        <v>8502</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4341</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8035</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9934</v>
+        <v>795</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8405</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8741</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2005</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4924</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6171</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1670</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8939</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1242</v>
+        <v>515</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9501</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7575</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6774</v>
+        <v>990</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7386</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7584</v>
+        <v>8679</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3873</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1653</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5700</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1240</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9161</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2437</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6308</v>
+        <v>510</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9422</v>
+        <v>8686</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3127</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3346</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2552</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7044</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7523</v>
+        <v>9105</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>725</v>
+        <v>100</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6236</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3039</v>
+        <v>9194</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7106</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>704</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5006</v>
+        <v>8216</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6820</v>
+        <v>750</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3194</v>
+        <v>750</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" ref="A330:A393" ca="1" si="5">INT(RAND()*10000)</f>
-        <v>2620</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8974</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>663</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3541</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7331</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1317</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6913</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2390</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5317</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1047</v>
+        <v>9644</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6910</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5430</v>
+        <v>489</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>803</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7107</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6893</v>
+        <v>62</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>174</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6919</v>
+        <v>9074</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8690</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3557</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4509</v>
+        <v>9344</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3972</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1840</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>987</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3890</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4593</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4250</v>
+        <v>869</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7784</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2504</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5449</v>
+        <v>9775</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6624</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9606</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9210</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7544</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4776</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7947</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3450</v>
+        <v>9949</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5366</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>312</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1812</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9842</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1458</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7504</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7108</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4577</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4671</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3507</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9661</v>
+        <v>552</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1087</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3821</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8667</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4494</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2017</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3899</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6350</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8293</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2997</v>
+        <v>9433</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5999</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8332</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3822</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1193</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8978</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7078</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2576</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5501</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <f t="shared" ref="A394:A457" ca="1" si="6">INT(RAND()*10000)</f>
-        <v>3621</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>541</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5938</v>
+        <v>403</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1846</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1096</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2197</v>
+        <v>9858</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5072</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7900</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7376</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>803</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4138</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7333</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4915</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5156</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8365</v>
+        <v>660</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8059</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3255</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2618</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5360</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8396</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6366</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4223</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6684</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4597</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8985</v>
+        <v>9551</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7293</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6549</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6132</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4662</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3907</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9283</v>
+        <v>52</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7509</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8757</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>276</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9220</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2234</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9279</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7563</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1661</v>
+        <v>534</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7596</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2242</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7131</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>499</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3050</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9784</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6436</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7909</v>
+        <v>9512</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4269</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1898</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2740</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1876</v>
+        <v>8756</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8461</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1688</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4790</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4503</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9968</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7127</v>
+        <v>9643</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5373</v>
+        <v>8497</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1093</v>
+        <v>8537</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2781</v>
+        <v>758</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3748</v>
+        <v>9623</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7415</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4795</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2897</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <f t="shared" ref="A458:A521" ca="1" si="7">INT(RAND()*10000)</f>
-        <v>9204</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4504</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6093</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3618</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5573</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9588</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1264</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7932</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1945</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4940</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7826</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5925</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7563</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2187</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6365</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5297</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>265</v>
+        <v>9294</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6948</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9961</v>
+        <v>9612</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7690</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6994</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9164</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2787</v>
+        <v>748</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8838</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8793</v>
+        <v>916</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4941</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3932</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>843</v>
+        <v>8778</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4207</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9171</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7549</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1686</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5015</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7337</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2940</v>
+        <v>7024</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3695</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9823</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3030</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7722</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4888</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6995</v>
+        <v>841</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7480</v>
+        <v>8872</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9204</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2459</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1017</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8834</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4292</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7772</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4635</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7344</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9042</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4960</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2587</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2066</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6233</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>819</v>
+        <v>8433</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9862</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9182</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2442</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5218</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6916</v>
+        <v>147</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4318</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6545</v>
+        <v>9883</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8716</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <f t="shared" ref="A522:A585" ca="1" si="8">INT(RAND()*10000)</f>
-        <v>5640</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2034</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9072</v>
+        <v>310</v>
       </c>
     </row>
     <row r="525" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4235</v>
+        <v>9597</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3540</v>
+        <v>8999</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2848</v>
+        <v>159</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4409</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5962</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7226</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="531" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2345</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5837</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7811</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9117</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="535" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9885</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7424</v>
+        <v>9026</v>
       </c>
     </row>
     <row r="537" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3606</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="538" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>977</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>609</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="540" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>176</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="541" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4269</v>
+        <v>323</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6198</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2352</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2332</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>690</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="546" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1384</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8239</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2824</v>
+        <v>865</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2753</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9924</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="551" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2028</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8543</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="553" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1658</v>
+        <v>9030</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9763</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="555" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4081</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="556" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2595</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3777</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="558" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3843</v>
+        <v>170</v>
       </c>
     </row>
     <row r="559" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7406</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6148</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7602</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6559</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="563" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2527</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6948</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2839</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5998</v>
+        <v>9914</v>
       </c>
     </row>
     <row r="567" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9098</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="568" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3358</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2716</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="570" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6762</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2709</v>
+        <v>9569</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3542</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6945</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2411</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="575" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3577</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5665</v>
+        <v>8076</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>597</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="579" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7786</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6811</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="583" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9748</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>444</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="585" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4602</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <f t="shared" ref="A586:A649" ca="1" si="9">INT(RAND()*10000)</f>
-        <v>6932</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="587" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4063</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6781</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="589" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5613</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8000</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8844</v>
+        <v>686</v>
       </c>
     </row>
     <row r="592" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5982</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="593" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5577</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="594" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2247</v>
+        <v>9905</v>
       </c>
     </row>
     <row r="595" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5234</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="597" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2963</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3074</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="599" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4500</v>
+        <v>94</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3471</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8798</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8468</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="603" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1968</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="604" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9929</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2058</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="606" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4916</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1300</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1208</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="609" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5329</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="610" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6027</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2215</v>
+        <v>423</v>
       </c>
     </row>
     <row r="612" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4185</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5689</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>419</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4129</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5915</v>
+        <v>769</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7333</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5406</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="619" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6968</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="622" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>669</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="623" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2560</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5659</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2730</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5368</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4637</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5448</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="629" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4540</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8313</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="631" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7150</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8930</v>
+        <v>946</v>
       </c>
     </row>
     <row r="633" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7548</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="634" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5978</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="635" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3105</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="636" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5951</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="637" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4693</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="638" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6965</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="639" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7524</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="640" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5992</v>
+        <v>8412</v>
       </c>
     </row>
     <row r="641" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4714</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="642" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2818</v>
+        <v>994</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8594</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>837</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="645" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5784</v>
+        <v>8951</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>851</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8383</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="648" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5064</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7153</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <f t="shared" ref="A650:A713" ca="1" si="10">INT(RAND()*10000)</f>
-        <v>7869</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="651" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2108</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6104</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="653" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4399</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="654" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9264</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6610</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7890</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="657" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6080</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8372</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="659" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2075</v>
+        <v>9292</v>
       </c>
     </row>
     <row r="660" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4102</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="661" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2746</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6725</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8817</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="664" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6507</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="665" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8581</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="666" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1718</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="667" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2581</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="668" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7499</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="669" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5581</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1435</v>
+        <v>8879</v>
       </c>
     </row>
     <row r="671" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5732</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="672" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9588</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="673" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7653</v>
+        <v>8979</v>
       </c>
     </row>
     <row r="674" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3394</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="675" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>784</v>
+        <v>8758</v>
       </c>
     </row>
     <row r="676" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7079</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7969</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="678" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>245</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="679" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>175</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4026</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="681" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7173</v>
+        <v>9312</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5760</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="683" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7016</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="684" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7837</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="685" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3893</v>
+        <v>261</v>
       </c>
     </row>
     <row r="686" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4863</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2796</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="688" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3351</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="689" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2985</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="690" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4325</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="691" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4234</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8442</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="693" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6209</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1932</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="695" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5593</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="696" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8146</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="697" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2432</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="698" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>664</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="699" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>808</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="700" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9505</v>
+        <v>9652</v>
       </c>
     </row>
     <row r="701" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2256</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="702" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9278</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="703" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3850</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="704" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1417</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="705" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8779</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="706" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6104</v>
+        <v>9585</v>
       </c>
     </row>
     <row r="707" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8555</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="708" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9244</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="709" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>693</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="710" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1188</v>
+        <v>8491</v>
       </c>
     </row>
     <row r="711" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2792</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="712" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3014</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4797</v>
+        <v>9337</v>
       </c>
     </row>
     <row r="714" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <f t="shared" ref="A714:A777" ca="1" si="11">INT(RAND()*10000)</f>
-        <v>5427</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="715" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7985</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="716" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7384</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="717" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9793</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="718" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9873</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="719" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1568</v>
+        <v>9437</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>413</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="721" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>669</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="722" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>607</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="723" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3263</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="724" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>134</v>
+        <v>572</v>
       </c>
     </row>
     <row r="725" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9989</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="726" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2958</v>
+        <v>757</v>
       </c>
     </row>
     <row r="727" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5000</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="728" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6544</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1058</v>
+        <v>98</v>
       </c>
     </row>
     <row r="730" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8039</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="731" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4632</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="732" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8644</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="733" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3683</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="734" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>996</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="735" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4134</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="736" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5261</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="737" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>514</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="738" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5721</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="739" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8833</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="740" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7932</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="741" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1574</v>
+        <v>8698</v>
       </c>
     </row>
     <row r="742" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3935</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="743" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7398</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="744" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6693</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="745" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4537</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="746" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6633</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="747" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5548</v>
+        <v>8942</v>
       </c>
     </row>
     <row r="748" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4757</v>
+        <v>81</v>
       </c>
     </row>
     <row r="749" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3579</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="750" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5574</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="751" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1299</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="752" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="753" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7906</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="754" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7615</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="755" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9136</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="756" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2572</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="757" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3274</v>
+        <v>985</v>
       </c>
     </row>
     <row r="758" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>102</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="759" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8969</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="760" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7535</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="761" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>277</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="762" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7808</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="763" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1294</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="764" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9872</v>
+        <v>231</v>
       </c>
     </row>
     <row r="765" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6661</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="766" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7919</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="767" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8249</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="768" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3276</v>
+        <v>8658</v>
       </c>
     </row>
     <row r="769" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>754</v>
+        <v>8161</v>
       </c>
     </row>
     <row r="770" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1308</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="771" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1542</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="772" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5061</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="773" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7368</v>
+        <v>410</v>
       </c>
     </row>
     <row r="774" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8357</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="775" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2761</v>
+        <v>202</v>
       </c>
     </row>
     <row r="776" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9549</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="777" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2209</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="778" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <f t="shared" ref="A778:A841" ca="1" si="12">INT(RAND()*10000)</f>
-        <v>45</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="779" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3588</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="780" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5034</v>
+        <v>9135</v>
       </c>
     </row>
     <row r="781" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9611</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="782" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>370</v>
+        <v>969</v>
       </c>
     </row>
     <row r="783" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5371</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="784" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7446</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="785" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3183</v>
+        <v>9649</v>
       </c>
     </row>
     <row r="786" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1171</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="787" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5917</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="788" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6905</v>
+        <v>8844</v>
       </c>
     </row>
     <row r="789" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3583</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="790" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>791</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="791" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9259</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="792" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5211</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="793" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7658</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="794" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3687</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="795" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9908</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="796" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3076</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="797" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6785</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="798" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8371</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="799" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>521</v>
+        <v>138</v>
       </c>
     </row>
     <row r="800" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9928</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="801" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5716</v>
+        <v>262</v>
       </c>
     </row>
     <row r="802" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2701</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="803" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>119</v>
+        <v>579</v>
       </c>
     </row>
     <row r="804" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="805" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6447</v>
+        <v>294</v>
       </c>
     </row>
     <row r="806" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2625</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="807" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9433</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="808" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6238</v>
+        <v>8554</v>
       </c>
     </row>
     <row r="809" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6168</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="810" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4681</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="811" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8044</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="812" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3138</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="813" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7381</v>
+        <v>9483</v>
       </c>
     </row>
     <row r="814" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8352</v>
+        <v>543</v>
       </c>
     </row>
     <row r="815" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>131</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="816" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5992</v>
+        <v>956</v>
       </c>
     </row>
     <row r="817" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3935</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="818" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4442</v>
+        <v>957</v>
       </c>
     </row>
     <row r="819" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9042</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="820" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8142</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="821" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8324</v>
+        <v>36</v>
       </c>
     </row>
     <row r="822" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2219</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="823" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>970</v>
+        <v>877</v>
       </c>
     </row>
     <row r="824" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>234</v>
+        <v>8785</v>
       </c>
     </row>
     <row r="825" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2726</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="826" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7944</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="827" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6278</v>
+        <v>327</v>
       </c>
     </row>
     <row r="828" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5197</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="829" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5151</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="830" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4821</v>
+        <v>9675</v>
       </c>
     </row>
     <row r="831" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2604</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="832" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8497</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="833" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8608</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="834" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>671</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="835" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2116</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="836" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1190</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="837" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4039</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="838" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>939</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="839" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7542</v>
+        <v>5507</v>
       </c>
     </row>
     <row r="840" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7162</v>
+        <v>94</v>
       </c>
     </row>
     <row r="841" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1552</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="842" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <f t="shared" ref="A842:A905" ca="1" si="13">INT(RAND()*10000)</f>
-        <v>8501</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="843" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9890</v>
+        <v>8867</v>
       </c>
     </row>
     <row r="844" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1533</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="845" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3051</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="846" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5437</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="847" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9337</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="848" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7553</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="849" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3711</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="850" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1600</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="851" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7568</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="852" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4964</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="853" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3870</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="854" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6732</v>
+        <v>9772</v>
       </c>
     </row>
     <row r="855" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4802</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="856" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4314</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="857" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7311</v>
+        <v>8627</v>
       </c>
     </row>
     <row r="858" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6601</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="859" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6726</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="860" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="861" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8768</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="862" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>616</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="863" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5615</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="864" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1991</v>
+        <v>692</v>
       </c>
     </row>
     <row r="865" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>287</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="866" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7234</v>
+        <v>9474</v>
       </c>
     </row>
     <row r="867" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4409</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="868" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2610</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="869" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3440</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="870" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3307</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="871" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2703</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="872" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4580</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="873" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5688</v>
+        <v>9603</v>
       </c>
     </row>
     <row r="874" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A874" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4766</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="875" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A875" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8741</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="876" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A876" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4184</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="877" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A877" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3476</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="878" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A878" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4977</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="879" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A879" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3965</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="880" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A880" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9971</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="881" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A881" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2091</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="882" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A882" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3595</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="883" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A883" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2829</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="884" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A884" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6747</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="885" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A885" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1929</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="886" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A886" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3213</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="887" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A887" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5557</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="888" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A888" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4224</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="889" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A889" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3996</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="890" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A890" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4189</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="891" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A891" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9884</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="892" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A892" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3517</v>
+        <v>941</v>
       </c>
     </row>
     <row r="893" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A893" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>482</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="894" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A894" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2857</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="895" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A895" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6610</v>
+        <v>537</v>
       </c>
     </row>
     <row r="896" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A896" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8583</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="897" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A897" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3897</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="898" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A898" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3831</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="899" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A899" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7968</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="900" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A900" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2372</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="901" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A901" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4958</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="902" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A902" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7443</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="903" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A903" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4322</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="904" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A904" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3927</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="905" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A905" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1488</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="906" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A906" s="1">
         <f t="shared" ref="A906:A969" ca="1" si="14">INT(RAND()*10000)</f>
-        <v>8816</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="907" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A907" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1018</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="908" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A908" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2988</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="909" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A909" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9479</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="910" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A910" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9801</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="911" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A911" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6013</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="912" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A912" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9444</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="913" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A913" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>328</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="914" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A914" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5399</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="915" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A915" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5425</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="916" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A916" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1069</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="917" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A917" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6950</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="918" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A918" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>256</v>
+        <v>9823</v>
       </c>
     </row>
     <row r="919" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A919" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6473</v>
+        <v>9498</v>
       </c>
     </row>
     <row r="920" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A920" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6680</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="921" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A921" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7883</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="922" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A922" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3730</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="923" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A923" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5031</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="924" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A924" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3686</v>
+        <v>8069</v>
       </c>
     </row>
     <row r="925" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A925" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>384</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="926" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A926" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8203</v>
+        <v>8322</v>
       </c>
     </row>
     <row r="927" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A927" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8497</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="928" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A928" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>512</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="929" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A929" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3386</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="930" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A930" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1389</v>
+        <v>8719</v>
       </c>
     </row>
     <row r="931" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A931" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6180</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="932" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A932" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1756</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="933" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A933" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3726</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="934" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A934" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2150</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="935" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A935" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1084</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="936" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A936" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4540</v>
+        <v>13</v>
       </c>
     </row>
     <row r="937" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A937" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1944</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="938" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A938" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1051</v>
+        <v>9847</v>
       </c>
     </row>
     <row r="939" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A939" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8231</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="940" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A940" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3229</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="941" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A941" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3462</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="942" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A942" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>889</v>
+        <v>8952</v>
       </c>
     </row>
     <row r="943" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A943" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6444</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="944" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A944" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>937</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="945" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A945" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7849</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="946" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A946" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2810</v>
+        <v>663</v>
       </c>
     </row>
     <row r="947" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A947" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3559</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="948" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A948" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6131</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="949" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A949" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5194</v>
+        <v>9006</v>
       </c>
     </row>
     <row r="950" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A950" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1998</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="951" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A951" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5435</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="952" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A952" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9852</v>
+        <v>8071</v>
       </c>
     </row>
     <row r="953" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A953" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3364</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="954" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A954" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>926</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="955" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A955" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5971</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="956" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A956" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8463</v>
+        <v>9467</v>
       </c>
     </row>
     <row r="957" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A957" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>539</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="958" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A958" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>264</v>
+        <v>938</v>
       </c>
     </row>
     <row r="959" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A959" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6669</v>
+        <v>444</v>
       </c>
     </row>
     <row r="960" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A960" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9292</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="961" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A961" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4034</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="962" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A962" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9810</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="963" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A963" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>230</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="964" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A964" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4342</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="965" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A965" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1703</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="966" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A966" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9244</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="967" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A967" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2896</v>
+        <v>922</v>
       </c>
     </row>
     <row r="968" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A968" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8274</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="969" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A969" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2139</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="970" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A970" s="1">
         <f t="shared" ref="A970:A1033" ca="1" si="15">INT(RAND()*10000)</f>
-        <v>6375</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="971" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A971" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3274</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="972" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A972" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2468</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="973" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A973" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4719</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="974" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A974" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3409</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="975" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A975" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>985</v>
+        <v>8558</v>
       </c>
     </row>
     <row r="976" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A976" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5402</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="977" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A977" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5050</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="978" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A978" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4129</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="979" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A979" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9159</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="980" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A980" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6899</v>
+        <v>9869</v>
       </c>
     </row>
     <row r="981" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A981" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7842</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="982" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A982" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>653</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="983" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A983" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4994</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="984" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A984" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9730</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="985" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A985" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7199</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="986" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A986" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6765</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="987" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A987" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7458</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="988" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A988" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1229</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="989" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A989" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="990" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A990" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2428</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="991" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A991" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4320</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="992" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A992" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9288</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="993" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A993" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6274</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="994" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A994" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1651</v>
+        <v>610</v>
       </c>
     </row>
     <row r="995" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A995" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4523</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="996" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A996" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9992</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="997" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A997" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7189</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="998" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A998" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3679</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="999" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A999" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7419</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1000" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1000" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1408</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1001" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1001" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8613</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="1002" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1002" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8103</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1003" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1003" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3911</v>
+        <v>9722</v>
       </c>
     </row>
     <row r="1004" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1004" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9685</v>
+        <v>812</v>
       </c>
     </row>
     <row r="1005" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1005" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7362</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1006" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1006" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1966</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1007" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1007" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5882</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="1008" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1008" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5399</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1009" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1009" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1685</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1010" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1010" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9212</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="1011" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1011" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9564</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="1012" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1012" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6696</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1013" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1013" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5272</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1014" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1014" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3102</v>
+        <v>9313</v>
       </c>
     </row>
     <row r="1015" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1015" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7222</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1016" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1016" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3776</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1017" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1017" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8746</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1018" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1018" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3870</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1019" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1019" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9957</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1020" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1020" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1311</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="1021" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1021" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4617</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1022" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1022" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4623</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="1023" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1023" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4024</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="1024" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1024" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2587</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="1025" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1025" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7580</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1026" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1026" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>182</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="1027" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1027" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5596</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="1028" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1028" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4044</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1029" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1029" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3926</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1030" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1030" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8501</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="1031" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1031" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6994</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1032" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1032" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5088</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1033" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1033" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5016</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="1034" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1034" s="1">
         <f t="shared" ref="A1034:A1062" ca="1" si="16">INT(RAND()*10000)</f>
-        <v>3224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1035" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1035" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3555</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="1036" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1036" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3689</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="1037" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1037" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>5870</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="1038" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1038" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>5169</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="1039" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1039" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>5715</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1040" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1040" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>8080</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="1041" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1041" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>1216</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="1042" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1042" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>602</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="1043" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1043" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3936</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="1044" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1044" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3631</v>
+        <v>9565</v>
       </c>
     </row>
     <row r="1045" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1045" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>7425</v>
+        <v>7526</v>
       </c>
     </row>
     <row r="1046" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1046" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3819</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1047" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1047" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2178</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1048" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1048" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>281</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1049" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1049" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2805</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="1050" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1050" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>470</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="1051" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1051" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>7321</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1052" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1052" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>4788</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="1053" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1053" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>841</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1054" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1054" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>7813</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1055" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1055" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3588</v>
+        <v>9723</v>
       </c>
     </row>
     <row r="1056" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1056" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>4300</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="1057" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1057" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>8352</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1058" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1058" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3124</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1059" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1059" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>515</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1060" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1060" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>7052</v>
+        <v>361</v>
       </c>
     </row>
     <row r="1061" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1061" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3251</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1062" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1062" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>9485</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="1063" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">

--- a/test_excel/example - 複製1K.xlsx
+++ b/test_excel/example - 複製1K.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorial\Python\find_sum_excel\test_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228854A-365D-499B-BD3F-3E2F135A849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A386785-BE9F-4EC8-BF9B-49DB4B1A7894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28665" yWindow="2775" windowWidth="11685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="30" windowWidth="17715" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dbb" sheetId="2" r:id="rId1"/>
@@ -382,7 +382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288FF91A-4D15-45CB-B4EF-0FC0D8778191}">
   <dimension ref="A1:A10341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:A10319"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -422,6331 +424,6331 @@
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f ca="1">INT(RAND()*10000)</f>
-        <v>2480</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f ca="1">INT(RAND()*10000)</f>
-        <v>1200</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A73" ca="1" si="0">INT(RAND()*10000)</f>
-        <v>9514</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8557</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5205</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1242</v>
+        <v>812</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9555</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6332</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6575</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4875</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8921</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>508</v>
+        <v>9581</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8581</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6687</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3309</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4614</v>
+        <v>9874</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>839</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8518</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7912</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>685</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6112</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6611</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8962</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3690</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8505</v>
+        <v>990</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7273</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3654</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7890</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3071</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6193</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4227</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2672</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3088</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7158</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7934</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2383</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3608</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>543</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>564</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9158</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5371</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6427</v>
+        <v>9116</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4005</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8649</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3789</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4436</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7136</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4092</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9621</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1697</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2538</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7495</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3115</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6435</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8523</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4113</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4814</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7320</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7944</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2041</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3436</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4998</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3039</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4393</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3981</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3031</v>
+        <v>914</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <f t="shared" ref="A74:A137" ca="1" si="1">INT(RAND()*10000)</f>
-        <v>9093</v>
+        <v>8046</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>566</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7503</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1266</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8201</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3942</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4566</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3434</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2315</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5711</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2689</v>
+        <v>8895</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6859</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9429</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4815</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7783</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7381</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7262</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4290</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8594</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2886</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5977</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6637</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9537</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8185</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2634</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7944</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1545</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9586</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9793</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1772</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3151</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9325</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2109</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6775</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6701</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8873</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1805</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8144</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>370</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3584</v>
+        <v>7178</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4801</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5539</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6153</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9231</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2429</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6758</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5314</v>
+        <v>8661</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7899</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3893</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1785</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3966</v>
+        <v>8688</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2833</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4143</v>
+        <v>8449</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5592</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6999</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>432</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7278</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6303</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1060</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9613</v>
+        <v>8959</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6413</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4802</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3045</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <f t="shared" ref="A138:A201" ca="1" si="2">INT(RAND()*10000)</f>
-        <v>2378</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>897</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6638</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8113</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2998</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4476</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3894</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6517</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1629</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>479</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3388</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3094</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4265</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8886</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7561</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5765</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8653</v>
+        <v>8166</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5910</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4909</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2547</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9844</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8311</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1964</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4083</v>
+        <v>491</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4513</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1275</v>
+        <v>9425</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6451</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3672</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9600</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7515</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6267</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1328</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6546</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7154</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5381</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4905</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8150</v>
+        <v>9539</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3441</v>
+        <v>8106</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>708</v>
+        <v>9436</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9115</v>
+        <v>482</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2585</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8788</v>
+        <v>8204</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6858</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6209</v>
+        <v>8646</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1362</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5253</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>516</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3297</v>
+        <v>8689</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9563</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>985</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6612</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1447</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4571</v>
+        <v>947</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6091</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>407</v>
+        <v>949</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9642</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2218</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>4125</v>
+        <v>9905</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1889</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6955</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5158</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <f t="shared" ref="A202:A265" ca="1" si="3">INT(RAND()*10000)</f>
-        <v>5926</v>
+        <v>8722</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2160</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6863</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9031</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9346</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4411</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4417</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3698</v>
+        <v>6532</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5913</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2811</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9919</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1815</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7532</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2193</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4780</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>790</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1299</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1055</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2090</v>
+        <v>344</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6852</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6649</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>241</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6627</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8072</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2017</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8948</v>
+        <v>717</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5001</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1664</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9110</v>
+        <v>8534</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8096</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5162</v>
+        <v>8344</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6040</v>
+        <v>9065</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5866</v>
+        <v>9873</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1486</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7597</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>360</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5559</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>179</v>
+        <v>9099</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9740</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4688</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>640</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5990</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4157</v>
+        <v>9820</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5320</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3601</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2286</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8914</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6526</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4920</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2565</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8961</v>
+        <v>8945</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>5257</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7460</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9149</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>7806</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>8226</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1328</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6551</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1913</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9036</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9775</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <f t="shared" ref="A266:A329" ca="1" si="4">INT(RAND()*10000)</f>
-        <v>5231</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="267" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>739</v>
+        <v>646</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>408</v>
+        <v>742</v>
       </c>
     </row>
     <row r="269" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9271</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5805</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8848</v>
+        <v>9911</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="273" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>217</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="274" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7283</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5083</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="276" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6796</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="277" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1339</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2614</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5952</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="280" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2519</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7646</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="282" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7125</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6871</v>
+        <v>197</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9472</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4879</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="286" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1174</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="287" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8405</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9047</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>913</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2781</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="291" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3771</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8502</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6393</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4086</v>
+        <v>629</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>795</v>
+        <v>8036</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9011</v>
+        <v>307</v>
       </c>
     </row>
     <row r="297" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6027</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8650</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="299" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1121</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1334</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5719</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3573</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="303" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>515</v>
+        <v>350</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3577</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="305" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3754</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>990</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5026</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8679</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="309" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6314</v>
+        <v>8485</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7025</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="311" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9294</v>
+        <v>9362</v>
       </c>
     </row>
     <row r="312" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1780</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5927</v>
+        <v>756</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>6404</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="315" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>510</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="316" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8686</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1295</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>4417</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2289</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3839</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9105</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7865</v>
+        <v>8659</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>9194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="325" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3647</v>
+        <v>964</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>3383</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="327" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8216</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="328" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>750</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>750</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="330" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <f t="shared" ref="A330:A393" ca="1" si="5">INT(RAND()*10000)</f>
-        <v>3928</v>
+        <v>275</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6361</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5832</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5761</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4992</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5950</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5634</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6155</v>
+        <v>8942</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1709</v>
+        <v>640</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9644</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6850</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>489</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1385</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7516</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7290</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="346" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9074</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="347" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5194</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4549</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9344</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3800</v>
+        <v>871</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1928</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="352" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8466</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="353" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1204</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2243</v>
+        <v>9499</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>869</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5383</v>
+        <v>9669</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2482</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="358" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9775</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5296</v>
+        <v>547</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7749</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="361" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3194</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2272</v>
+        <v>9530</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7374</v>
+        <v>8944</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8070</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="365" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9949</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6855</v>
+        <v>31</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4354</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3782</v>
+        <v>749</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2517</v>
+        <v>35</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4114</v>
+        <v>8179</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3739</v>
+        <v>9597</v>
       </c>
     </row>
     <row r="372" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3740</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3901</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4946</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6835</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="376" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>552</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>3646</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>6096</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4089</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2611</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>1845</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>8780</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="383" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2904</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4889</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9433</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2168</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4660</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="388" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7531</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9773</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="390" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>4448</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>2840</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7449</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>9992</v>
+        <v>233</v>
       </c>
     </row>
     <row r="394" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <f t="shared" ref="A394:A457" ca="1" si="6">INT(RAND()*10000)</f>
-        <v>9106</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7208</v>
+        <v>6933</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>403</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5341</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4781</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="399" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9858</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5119</v>
+        <v>876</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1826</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1794</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="403" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5672</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5184</v>
+        <v>8494</v>
       </c>
     </row>
     <row r="405" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5175</v>
+        <v>8538</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5670</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="407" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6149</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>660</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3015</v>
+        <v>244</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4267</v>
+        <v>8234</v>
       </c>
     </row>
     <row r="411" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2461</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="412" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6077</v>
+        <v>263</v>
       </c>
     </row>
     <row r="413" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3935</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="414" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9545</v>
+        <v>8531</v>
       </c>
     </row>
     <row r="415" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2444</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2477</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9679</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="418" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9551</v>
+        <v>9849</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3495</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="420" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5229</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4748</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1856</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8159</v>
+        <v>9147</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7896</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="427" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3250</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5583</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3479</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="430" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8442</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3454</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>534</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7604</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6516</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6176</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8841</v>
+        <v>9481</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1895</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1795</v>
+        <v>743</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3810</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9512</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2803</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1403</v>
+        <v>8444</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5242</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8756</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4828</v>
+        <v>9145</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2557</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5484</v>
+        <v>9510</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>6610</v>
+        <v>8143</v>
       </c>
     </row>
     <row r="449" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2112</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9643</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8497</v>
+        <v>851</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>8537</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>758</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9623</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>2625</v>
+        <v>9143</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>3431</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>7773</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <f t="shared" ref="A458:A521" ca="1" si="7">INT(RAND()*10000)</f>
-        <v>7938</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="459" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9007</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="460" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1011</v>
+        <v>680</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8841</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4124</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="463" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6377</v>
+        <v>316</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1978</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8953</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8143</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5056</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="468" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6361</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7371</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6574</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2588</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="472" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5343</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="473" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4116</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="474" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9294</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="475" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8033</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9612</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2615</v>
+        <v>526</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8898</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7993</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="480" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>748</v>
+        <v>8201</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7113</v>
+        <v>466</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>916</v>
+        <v>9189</v>
       </c>
     </row>
     <row r="483" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7047</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2316</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8778</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3304</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2608</v>
+        <v>978</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6889</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7004</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4899</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6024</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="492" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7024</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>7154</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4647</v>
+        <v>9136</v>
       </c>
     </row>
     <row r="495" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4551</v>
+        <v>9661</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2756</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="497" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3507</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="498" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>841</v>
+        <v>328</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8872</v>
+        <v>8972</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5011</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="501" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8018</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="502" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9966</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3685</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3750</v>
+        <v>290</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3872</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6490</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="507" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3211</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="508" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3327</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="509" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3918</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4447</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="511" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1941</v>
+        <v>8317</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5903</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="513" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>8433</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4983</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>6665</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="516" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3479</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>3922</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>147</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="519" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>1129</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="520" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>9883</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="521" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>2876</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <f t="shared" ref="A522:A585" ca="1" si="8">INT(RAND()*10000)</f>
-        <v>1913</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1756</v>
+        <v>6972</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>310</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="525" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9597</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8999</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>159</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="528" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3548</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5863</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6514</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="531" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6519</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7666</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6070</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="535" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3764</v>
+        <v>9061</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9026</v>
+        <v>9437</v>
       </c>
     </row>
     <row r="537" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2645</v>
+        <v>8847</v>
       </c>
     </row>
     <row r="538" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6295</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1039</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="540" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5105</v>
+        <v>9917</v>
       </c>
     </row>
     <row r="541" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>323</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2418</v>
+        <v>9147</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5421</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2515</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4715</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="546" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5631</v>
+        <v>260</v>
       </c>
     </row>
     <row r="547" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5107</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>865</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4361</v>
+        <v>840</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6143</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="551" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9261</v>
+        <v>8194</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3251</v>
+        <v>7183</v>
       </c>
     </row>
     <row r="553" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9030</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2449</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="555" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5407</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="556" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5587</v>
+        <v>9833</v>
       </c>
     </row>
     <row r="557" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5439</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="558" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>170</v>
+        <v>9147</v>
       </c>
     </row>
     <row r="559" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1307</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>4106</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3370</v>
+        <v>937</v>
       </c>
     </row>
     <row r="562" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1087</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="563" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1699</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6398</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6562</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9914</v>
+        <v>412</v>
       </c>
     </row>
     <row r="567" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3936</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="568" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2603</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2816</v>
+        <v>9738</v>
       </c>
     </row>
     <row r="570" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>1239</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9569</v>
+        <v>9678</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6026</v>
+        <v>253</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6020</v>
+        <v>906</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3149</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="575" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5309</v>
+        <v>9901</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2059</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="577" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8076</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6952</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="579" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7751</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>392</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2656</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="582" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6894</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="583" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>5998</v>
+        <v>9636</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>9764</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="585" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>7501</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <f t="shared" ref="A586:A649" ca="1" si="9">INT(RAND()*10000)</f>
-        <v>6769</v>
+        <v>9892</v>
       </c>
     </row>
     <row r="587" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2936</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="588" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1140</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="589" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2532</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9432</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>686</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="592" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7897</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="593" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4375</v>
+        <v>9037</v>
       </c>
     </row>
     <row r="594" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9905</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="595" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4423</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4745</v>
+        <v>8378</v>
       </c>
     </row>
     <row r="597" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1985</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3578</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="599" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1147</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2338</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1379</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="603" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4834</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="604" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1343</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3921</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="606" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4176</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3350</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5459</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="609" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3379</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="610" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7480</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>423</v>
+        <v>31</v>
       </c>
     </row>
     <row r="612" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1311</v>
+        <v>9733</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1847</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5395</v>
+        <v>640</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1765</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>769</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1348</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5063</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="619" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>753</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9279</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4500</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="622" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5519</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="623" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5198</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7099</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="625" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>7899</v>
+        <v>9734</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8480</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2791</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="628" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5736</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="629" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1925</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="630" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>9382</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="631" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5519</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>946</v>
+        <v>9976</v>
       </c>
     </row>
     <row r="633" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5092</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="634" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1559</v>
+        <v>9171</v>
       </c>
     </row>
     <row r="635" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4316</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="636" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8002</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="637" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1368</v>
+        <v>9902</v>
       </c>
     </row>
     <row r="638" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6047</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="639" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>4710</v>
+        <v>8152</v>
       </c>
     </row>
     <row r="640" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8412</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="641" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5186</v>
+        <v>8024</v>
       </c>
     </row>
     <row r="642" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>994</v>
+        <v>351</v>
       </c>
     </row>
     <row r="643" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5151</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8833</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="645" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8951</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="646" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>5528</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="647" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>1155</v>
+        <v>7983</v>
       </c>
     </row>
     <row r="648" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>6674</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="649" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8277</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <f t="shared" ref="A650:A713" ca="1" si="10">INT(RAND()*10000)</f>
-        <v>4363</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="651" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4411</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="652" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6110</v>
+        <v>8968</v>
       </c>
     </row>
     <row r="653" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2319</v>
+        <v>8561</v>
       </c>
     </row>
     <row r="654" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="655" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2775</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7652</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="657" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2547</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="658" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7596</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="659" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9292</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="660" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6101</v>
+        <v>244</v>
       </c>
     </row>
     <row r="661" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6730</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="662" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7217</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6969</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="664" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6913</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="665" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2278</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="666" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3746</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="667" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6910</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="668" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9314</v>
+        <v>8668</v>
       </c>
     </row>
     <row r="669" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5100</v>
+        <v>9314</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8879</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="671" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2494</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="672" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1992</v>
+        <v>392</v>
       </c>
     </row>
     <row r="673" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8979</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="674" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2668</v>
+        <v>8567</v>
       </c>
     </row>
     <row r="675" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8758</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="676" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1209</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1636</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="678" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2861</v>
+        <v>9677</v>
       </c>
     </row>
     <row r="679" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1937</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="680" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7250</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="681" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9312</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="682" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9611</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="683" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7100</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="684" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4624</v>
+        <v>8191</v>
       </c>
     </row>
     <row r="685" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>261</v>
+        <v>9159</v>
       </c>
     </row>
     <row r="686" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6372</v>
+        <v>9848</v>
       </c>
     </row>
     <row r="687" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3419</v>
+        <v>8465</v>
       </c>
     </row>
     <row r="688" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1262</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="689" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6585</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="690" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8236</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="691" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8585</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="692" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5145</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="693" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9650</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="694" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2745</v>
+        <v>8710</v>
       </c>
     </row>
     <row r="695" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6867</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="696" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1273</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="697" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>5615</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="698" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>4556</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="699" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7352</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="700" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9652</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="701" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8264</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="702" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3226</v>
+        <v>6951</v>
       </c>
     </row>
     <row r="703" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>1783</v>
+        <v>536</v>
       </c>
     </row>
     <row r="704" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3677</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="705" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2649</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="706" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9585</v>
+        <v>134</v>
       </c>
     </row>
     <row r="707" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>3518</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="708" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7488</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="709" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>7827</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="710" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8491</v>
+        <v>45</v>
       </c>
     </row>
     <row r="711" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>6156</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="712" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>2177</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="713" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>9337</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="714" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <f t="shared" ref="A714:A777" ca="1" si="11">INT(RAND()*10000)</f>
-        <v>9595</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="715" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2948</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="716" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2249</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="717" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1952</v>
+        <v>9542</v>
       </c>
     </row>
     <row r="718" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1038</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="719" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9437</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="720" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9382</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="721" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5118</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="722" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8554</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="723" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8034</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="724" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>572</v>
+        <v>8837</v>
       </c>
     </row>
     <row r="725" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8809</v>
+        <v>781</v>
       </c>
     </row>
     <row r="726" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>757</v>
+        <v>9511</v>
       </c>
     </row>
     <row r="727" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3422</v>
+        <v>221</v>
       </c>
     </row>
     <row r="728" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7064</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="729" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>98</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="730" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3082</v>
+        <v>984</v>
       </c>
     </row>
     <row r="731" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1620</v>
+        <v>8939</v>
       </c>
     </row>
     <row r="732" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7611</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="733" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4154</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="734" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1709</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="735" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2829</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="736" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4519</v>
+        <v>240</v>
       </c>
     </row>
     <row r="737" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4050</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="738" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8158</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="739" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5978</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="740" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5911</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="741" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8698</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="742" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8125</v>
+        <v>8277</v>
       </c>
     </row>
     <row r="743" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4137</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="744" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8594</v>
+        <v>129</v>
       </c>
     </row>
     <row r="745" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6758</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="746" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2681</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="747" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8942</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="748" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="749" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5464</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="750" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7513</v>
+        <v>8059</v>
       </c>
     </row>
     <row r="751" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1289</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="752" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6905</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="753" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2269</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="754" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8575</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="755" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3687</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="756" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3884</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="757" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>985</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="758" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4668</v>
+        <v>7198</v>
       </c>
     </row>
     <row r="759" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6716</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="760" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>3414</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="761" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7508</v>
+        <v>9564</v>
       </c>
     </row>
     <row r="762" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2368</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="763" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>2310</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="764" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>231</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="765" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>9514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="766" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1824</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="767" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5691</v>
+        <v>8028</v>
       </c>
     </row>
     <row r="768" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8658</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="769" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8161</v>
+        <v>9574</v>
       </c>
     </row>
     <row r="770" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>1776</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="771" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>5857</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="772" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6224</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="773" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>410</v>
+        <v>9051</v>
       </c>
     </row>
     <row r="774" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>4476</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="775" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="776" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>6698</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="777" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>7385</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="778" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <f t="shared" ref="A778:A841" ca="1" si="12">INT(RAND()*10000)</f>
-        <v>2936</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="779" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6174</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="780" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9135</v>
+        <v>8261</v>
       </c>
     </row>
     <row r="781" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5525</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="782" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>969</v>
+        <v>897</v>
       </c>
     </row>
     <row r="783" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7031</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="784" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2691</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="785" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9649</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="786" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2588</v>
+        <v>885</v>
       </c>
     </row>
     <row r="787" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5354</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="788" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8844</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="789" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3085</v>
+        <v>9899</v>
       </c>
     </row>
     <row r="790" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9619</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="791" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7827</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="792" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4774</v>
+        <v>983</v>
       </c>
     </row>
     <row r="793" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4480</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="794" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7952</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="795" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7390</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="796" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3009</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="797" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5045</v>
+        <v>9803</v>
       </c>
     </row>
     <row r="798" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1258</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="799" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>138</v>
+        <v>217</v>
       </c>
     </row>
     <row r="800" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4444</v>
+        <v>394</v>
       </c>
     </row>
     <row r="801" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>262</v>
+        <v>9316</v>
       </c>
     </row>
     <row r="802" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4126</v>
+        <v>8786</v>
       </c>
     </row>
     <row r="803" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>579</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="804" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8967</v>
+        <v>376</v>
       </c>
     </row>
     <row r="805" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>294</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="806" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5220</v>
+        <v>876</v>
       </c>
     </row>
     <row r="807" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2174</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="808" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8554</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="809" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5684</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="810" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2038</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="811" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6639</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="812" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8527</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="813" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9483</v>
+        <v>17</v>
       </c>
     </row>
     <row r="814" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>543</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="815" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3890</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="816" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>956</v>
+        <v>450</v>
       </c>
     </row>
     <row r="817" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3846</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="818" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>957</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="819" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3083</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="820" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6923</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="821" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>36</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="822" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3510</v>
+        <v>293</v>
       </c>
     </row>
     <row r="823" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>877</v>
+        <v>9188</v>
       </c>
     </row>
     <row r="824" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>8785</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="825" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3425</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="826" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>6550</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="827" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>327</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="828" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3902</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="829" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9721</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="830" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9675</v>
+        <v>8177</v>
       </c>
     </row>
     <row r="831" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7436</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="832" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4654</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="833" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1541</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="834" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>4101</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="835" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>1843</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="836" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>3338</v>
+        <v>8106</v>
       </c>
     </row>
     <row r="837" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>2860</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="838" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>7437</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="839" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>5507</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="840" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>94</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="841" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>9243</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="842" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <f t="shared" ref="A842:A905" ca="1" si="13">INT(RAND()*10000)</f>
-        <v>9037</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="843" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8867</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="844" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5796</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="845" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9709</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="846" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2353</v>
+        <v>26</v>
       </c>
     </row>
     <row r="847" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2941</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="848" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2758</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="849" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9648</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="850" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5741</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="851" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3568</v>
+        <v>8294</v>
       </c>
     </row>
     <row r="852" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3582</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="853" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8174</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="854" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9772</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="855" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1100</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="856" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2346</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="857" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8627</v>
+        <v>7086</v>
       </c>
     </row>
     <row r="858" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1993</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="859" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1588</v>
+        <v>512</v>
       </c>
     </row>
     <row r="860" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9128</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="861" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2955</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="862" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9953</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="863" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1149</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="864" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>692</v>
+        <v>197</v>
       </c>
     </row>
     <row r="865" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6990</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="866" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9474</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="867" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8723</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="868" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2312</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="869" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4559</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="870" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7713</v>
+        <v>245</v>
       </c>
     </row>
     <row r="871" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7556</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="872" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6698</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="873" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9603</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="874" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A874" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7741</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="875" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A875" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4201</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="876" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A876" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1518</v>
+        <v>818</v>
       </c>
     </row>
     <row r="877" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A877" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>8605</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="878" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A878" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4164</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="879" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A879" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6322</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="880" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A880" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3761</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="881" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A881" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4781</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="882" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A882" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5280</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="883" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A883" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>4850</v>
+        <v>8660</v>
       </c>
     </row>
     <row r="884" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A884" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6385</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="885" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A885" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2288</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="886" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A886" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3153</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="887" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A887" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2776</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="888" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A888" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5031</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="889" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A889" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5998</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="890" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A890" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1959</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="891" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A891" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1152</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="892" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A892" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>941</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="893" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A893" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5635</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="894" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A894" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3192</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="895" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A895" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>537</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="896" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A896" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>3248</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="897" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A897" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1659</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="898" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A898" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>9007</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="899" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A899" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1581</v>
+        <v>217</v>
       </c>
     </row>
     <row r="900" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A900" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>5958</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="901" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A901" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6865</v>
+        <v>8102</v>
       </c>
     </row>
     <row r="902" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A902" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>7596</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="903" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A903" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>2848</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="904" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A904" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1347</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="905" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A905" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>6802</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="906" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A906" s="1">
         <f t="shared" ref="A906:A969" ca="1" si="14">INT(RAND()*10000)</f>
-        <v>3055</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="907" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A907" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4560</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="908" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A908" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2269</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="909" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A909" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6631</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="910" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A910" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1720</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="911" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A911" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6985</v>
+        <v>9453</v>
       </c>
     </row>
     <row r="912" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A912" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4834</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="913" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A913" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6985</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="914" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A914" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3293</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="915" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A915" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8788</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="916" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A916" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7771</v>
+        <v>8481</v>
       </c>
     </row>
     <row r="917" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A917" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5969</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="918" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A918" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9823</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="919" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A919" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9498</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="920" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A920" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2240</v>
+        <v>9286</v>
       </c>
     </row>
     <row r="921" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A921" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9000</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="922" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A922" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5806</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="923" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A923" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6863</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="924" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A924" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8069</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="925" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A925" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7347</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="926" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A926" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8322</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="927" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A927" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7613</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="928" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A928" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5210</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="929" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A929" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7094</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="930" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A930" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8719</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="931" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A931" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5304</v>
+        <v>508</v>
       </c>
     </row>
     <row r="932" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A932" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3064</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="933" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A933" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4140</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="934" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A934" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2303</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="935" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A935" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6424</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="936" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A936" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>13</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="937" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A937" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4649</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="938" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A938" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9847</v>
+        <v>9310</v>
       </c>
     </row>
     <row r="939" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A939" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3189</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="940" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A940" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2384</v>
+        <v>206</v>
       </c>
     </row>
     <row r="941" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A941" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2063</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="942" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A942" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8952</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="943" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A943" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2073</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="944" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A944" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3527</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="945" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A945" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2896</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="946" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A946" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>663</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="947" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A947" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2294</v>
+        <v>397</v>
       </c>
     </row>
     <row r="948" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A948" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3679</v>
+        <v>490</v>
       </c>
     </row>
     <row r="949" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A949" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9006</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="950" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A950" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7437</v>
+        <v>9858</v>
       </c>
     </row>
     <row r="951" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A951" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2698</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="952" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A952" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8071</v>
+        <v>9672</v>
       </c>
     </row>
     <row r="953" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A953" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2933</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="954" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A954" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7877</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="955" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A955" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>3275</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="956" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A956" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>9467</v>
+        <v>18</v>
       </c>
     </row>
     <row r="957" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A957" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6451</v>
+        <v>8918</v>
       </c>
     </row>
     <row r="958" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A958" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>938</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="959" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A959" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>444</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="960" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A960" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>5777</v>
+        <v>809</v>
       </c>
     </row>
     <row r="961" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A961" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>8277</v>
+        <v>430</v>
       </c>
     </row>
     <row r="962" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A962" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2120</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="963" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A963" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>2382</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="964" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A964" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1631</v>
+        <v>9769</v>
       </c>
     </row>
     <row r="965" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A965" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>1462</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="966" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A966" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>7946</v>
+        <v>8109</v>
       </c>
     </row>
     <row r="967" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A967" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>922</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="968" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A968" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4552</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="969" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A969" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>6903</v>
+        <v>85</v>
       </c>
     </row>
     <row r="970" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A970" s="1">
         <f t="shared" ref="A970:A1033" ca="1" si="15">INT(RAND()*10000)</f>
-        <v>3985</v>
+        <v>8818</v>
       </c>
     </row>
     <row r="971" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A971" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3451</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="972" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A972" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6477</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="973" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A973" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1687</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="974" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A974" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5524</v>
+        <v>274</v>
       </c>
     </row>
     <row r="975" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A975" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8558</v>
+        <v>9853</v>
       </c>
     </row>
     <row r="976" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A976" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7035</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="977" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A977" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1072</v>
+        <v>176</v>
       </c>
     </row>
     <row r="978" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A978" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1875</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="979" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A979" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4164</v>
+        <v>7165</v>
       </c>
     </row>
     <row r="980" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A980" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9869</v>
+        <v>531</v>
       </c>
     </row>
     <row r="981" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A981" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4196</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="982" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A982" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4105</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="983" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A983" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6916</v>
+        <v>9079</v>
       </c>
     </row>
     <row r="984" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A984" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3466</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="985" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A985" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9449</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="986" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A986" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>7845</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="987" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A987" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1576</v>
+        <v>462</v>
       </c>
     </row>
     <row r="988" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A988" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4719</v>
+        <v>7167</v>
       </c>
     </row>
     <row r="989" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A989" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>207</v>
+        <v>8936</v>
       </c>
     </row>
     <row r="990" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A990" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6227</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="991" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A991" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2416</v>
+        <v>9871</v>
       </c>
     </row>
     <row r="992" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A992" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2086</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="993" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A993" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5680</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="994" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A994" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>610</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="995" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A995" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5272</v>
+        <v>8170</v>
       </c>
     </row>
     <row r="996" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A996" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1042</v>
+        <v>9854</v>
       </c>
     </row>
     <row r="997" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A997" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8581</v>
+        <v>8508</v>
       </c>
     </row>
     <row r="998" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A998" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9731</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="999" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A999" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2904</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1000" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1000" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>266</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1001" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1001" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5279</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1002" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1002" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>289</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="1003" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1003" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9722</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1004" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1004" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>812</v>
+        <v>9875</v>
       </c>
     </row>
     <row r="1005" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1005" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2438</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1006" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1006" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2939</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1007" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1007" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9299</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1008" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1008" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1716</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="1009" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1009" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1010" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1010" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3933</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="1011" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1011" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>8154</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="1012" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1012" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2075</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="1013" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1013" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3928</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1014" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1014" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9313</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="1015" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1015" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1297</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="1016" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1016" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2901</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="1017" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1017" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>2474</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1018" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1018" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>1369</v>
+        <v>8284</v>
       </c>
     </row>
     <row r="1019" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1019" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>525</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="1020" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1020" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6639</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="1021" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1021" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>852</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="1022" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1022" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6892</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="1023" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1023" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5952</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="1024" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1024" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9965</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="1025" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1025" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>4266</v>
+        <v>9473</v>
       </c>
     </row>
     <row r="1026" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1026" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>6226</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="1027" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1027" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>5441</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="1028" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1028" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3327</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1029" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1029" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>167</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="1030" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1030" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3916</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1031" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1031" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>71</v>
+        <v>8574</v>
       </c>
     </row>
     <row r="1032" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1032" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>3742</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="1033" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1033" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>9094</v>
+        <v>9092</v>
       </c>
     </row>
     <row r="1034" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1034" s="1">
         <f t="shared" ref="A1034:A1062" ca="1" si="16">INT(RAND()*10000)</f>
-        <v>2222</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="1035" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1035" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>8740</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="1036" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1036" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>5590</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="1037" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1037" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2745</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1038" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1038" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>8410</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="1039" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1039" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2584</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1040" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1040" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>5524</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="1041" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1041" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>6480</v>
+        <v>9919</v>
       </c>
     </row>
     <row r="1042" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1042" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>5213</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="1043" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1043" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>5715</v>
+        <v>8448</v>
       </c>
     </row>
     <row r="1044" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1044" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>9565</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="1045" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1045" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>7526</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="1046" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1046" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>1222</v>
+        <v>9096</v>
       </c>
     </row>
     <row r="1047" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1047" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>796</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1048" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1048" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>4160</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1049" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1049" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>6874</v>
+        <v>921</v>
       </c>
     </row>
     <row r="1050" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1050" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>6898</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1051" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1051" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>1607</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="1052" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1052" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2798</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1053" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1053" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>1151</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="1054" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1054" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>146</v>
+        <v>9457</v>
       </c>
     </row>
     <row r="1055" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1055" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>9723</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1056" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1056" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>6789</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1057" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1057" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>1356</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="1058" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1058" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>1077</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1059" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1059" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>2880</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1060" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1060" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>361</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="1061" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1061" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>3540</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1062" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1062" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>7298</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="1063" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
